--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Dnajb11-Prtg.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Dnajb11-Prtg.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.017675333333333</v>
+        <v>15.074518</v>
       </c>
       <c r="H2">
-        <v>18.053026</v>
+        <v>45.22355399999999</v>
       </c>
       <c r="I2">
-        <v>0.0682336914049216</v>
+        <v>0.1146175147123412</v>
       </c>
       <c r="J2">
-        <v>0.06823369140492158</v>
+        <v>0.1146175147123412</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.192031</v>
+        <v>0.118976</v>
       </c>
       <c r="N2">
-        <v>0.576093</v>
+        <v>0.356928</v>
       </c>
       <c r="O2">
-        <v>0.1445887365486417</v>
+        <v>0.1290366429533589</v>
       </c>
       <c r="P2">
-        <v>0.1445887365486417</v>
+        <v>0.1290366429533589</v>
       </c>
       <c r="Q2">
-        <v>1.155580211935333</v>
+        <v>1.793505853568</v>
       </c>
       <c r="R2">
-        <v>10.400221907418</v>
+        <v>16.141552682112</v>
       </c>
       <c r="S2">
-        <v>0.009865823230287526</v>
+        <v>0.01478985932213773</v>
       </c>
       <c r="T2">
-        <v>0.009865823230287526</v>
+        <v>0.01478985932213773</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.017675333333333</v>
+        <v>15.074518</v>
       </c>
       <c r="H3">
-        <v>18.053026</v>
+        <v>45.22355399999999</v>
       </c>
       <c r="I3">
-        <v>0.0682336914049216</v>
+        <v>0.1146175147123412</v>
       </c>
       <c r="J3">
-        <v>0.06823369140492158</v>
+        <v>0.1146175147123412</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>2.010455</v>
       </c>
       <c r="O3">
-        <v>0.5045871905020535</v>
+        <v>0.7268198740608612</v>
       </c>
       <c r="P3">
-        <v>0.5045871905020536</v>
+        <v>0.7268198740608612</v>
       </c>
       <c r="Q3">
-        <v>4.032755154092222</v>
+        <v>10.10221336189666</v>
       </c>
       <c r="R3">
-        <v>36.29479638682999</v>
+        <v>90.91992025706998</v>
       </c>
       <c r="S3">
-        <v>0.0344298466435935</v>
+        <v>0.08330628760839275</v>
       </c>
       <c r="T3">
-        <v>0.0344298466435935</v>
+        <v>0.08330628760839272</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.017675333333333</v>
+        <v>15.074518</v>
       </c>
       <c r="H4">
-        <v>18.053026</v>
+        <v>45.22355399999999</v>
       </c>
       <c r="I4">
-        <v>0.0682336914049216</v>
+        <v>0.1146175147123412</v>
       </c>
       <c r="J4">
-        <v>0.06823369140492158</v>
+        <v>0.1146175147123412</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.465775</v>
+        <v>0.13281</v>
       </c>
       <c r="N4">
-        <v>1.397325</v>
+        <v>0.39843</v>
       </c>
       <c r="O4">
-        <v>0.3507028488418203</v>
+        <v>0.1440404497599145</v>
       </c>
       <c r="P4">
-        <v>0.3507028488418204</v>
+        <v>0.1440404497599145</v>
       </c>
       <c r="Q4">
-        <v>2.802882728383333</v>
+        <v>2.00204673558</v>
       </c>
       <c r="R4">
-        <v>25.22594455545</v>
+        <v>18.01842062022</v>
       </c>
       <c r="S4">
-        <v>0.02392974996269964</v>
+        <v>0.01650955836952924</v>
       </c>
       <c r="T4">
-        <v>0.02392974996269963</v>
+        <v>0.01650955836952924</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.017675333333333</v>
+        <v>15.074518</v>
       </c>
       <c r="H5">
-        <v>18.053026</v>
+        <v>45.22355399999999</v>
       </c>
       <c r="I5">
-        <v>0.0682336914049216</v>
+        <v>0.1146175147123412</v>
       </c>
       <c r="J5">
-        <v>0.06823369140492158</v>
+        <v>0.1146175147123412</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -747,28 +747,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.000161</v>
+        <v>9.499999999999999E-05</v>
       </c>
       <c r="N5">
-        <v>0.000483</v>
+        <v>0.000285</v>
       </c>
       <c r="O5">
-        <v>0.0001212241074843714</v>
+        <v>0.000103033225865461</v>
       </c>
       <c r="P5">
-        <v>0.0001212241074843714</v>
+        <v>0.000103033225865461</v>
       </c>
       <c r="Q5">
-        <v>0.0009688457286666667</v>
+        <v>0.00143207921</v>
       </c>
       <c r="R5">
-        <v>0.008719611558000001</v>
+        <v>0.01288871289</v>
       </c>
       <c r="S5">
-        <v>8.271568340925643E-06</v>
+        <v>1.180941228149445E-05</v>
       </c>
       <c r="T5">
-        <v>8.271568340925643E-06</v>
+        <v>1.180941228149445E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,10 +797,10 @@
         <v>84.89685299999999</v>
       </c>
       <c r="I6">
-        <v>0.3208783762262898</v>
+        <v>0.2151681023954678</v>
       </c>
       <c r="J6">
-        <v>0.3208783762262897</v>
+        <v>0.2151681023954678</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.192031</v>
+        <v>0.118976</v>
       </c>
       <c r="N6">
-        <v>0.576093</v>
+        <v>0.356928</v>
       </c>
       <c r="O6">
-        <v>0.1445887365486417</v>
+        <v>0.1290366429533589</v>
       </c>
       <c r="P6">
-        <v>0.1445887365486417</v>
+        <v>0.1290366429533589</v>
       </c>
       <c r="Q6">
-        <v>5.434275859480999</v>
+        <v>3.366895994176</v>
       </c>
       <c r="R6">
-        <v>48.908482735329</v>
+        <v>30.302063947584</v>
       </c>
       <c r="S6">
-        <v>0.04639539900433896</v>
+        <v>0.02776456960375574</v>
       </c>
       <c r="T6">
-        <v>0.04639539900433895</v>
+        <v>0.02776456960375574</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>84.89685299999999</v>
       </c>
       <c r="I7">
-        <v>0.3208783762262898</v>
+        <v>0.2151681023954678</v>
       </c>
       <c r="J7">
-        <v>0.3208783762262897</v>
+        <v>0.2151681023954678</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -877,10 +877,10 @@
         <v>2.010455</v>
       </c>
       <c r="O7">
-        <v>0.5045871905020535</v>
+        <v>0.7268198740608612</v>
       </c>
       <c r="P7">
-        <v>0.5045871905020536</v>
+        <v>0.7268198740608612</v>
       </c>
       <c r="Q7">
         <v>18.96458917756833</v>
@@ -889,10 +889,10 @@
         <v>170.681302598115</v>
       </c>
       <c r="S7">
-        <v>0.1619111183528845</v>
+        <v>0.1563884530849884</v>
       </c>
       <c r="T7">
-        <v>0.1619111183528845</v>
+        <v>0.1563884530849884</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>84.89685299999999</v>
       </c>
       <c r="I8">
-        <v>0.3208783762262898</v>
+        <v>0.2151681023954678</v>
       </c>
       <c r="J8">
-        <v>0.3208783762262897</v>
+        <v>0.2151681023954678</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.465775</v>
+        <v>0.13281</v>
       </c>
       <c r="N8">
-        <v>1.397325</v>
+        <v>0.39843</v>
       </c>
       <c r="O8">
-        <v>0.3507028488418203</v>
+        <v>0.1440404497599145</v>
       </c>
       <c r="P8">
-        <v>0.3507028488418204</v>
+        <v>0.1440404497599145</v>
       </c>
       <c r="Q8">
-        <v>13.180943902025</v>
+        <v>3.758383682309999</v>
       </c>
       <c r="R8">
-        <v>118.628495118225</v>
+        <v>33.82545314079</v>
       </c>
       <c r="S8">
-        <v>0.1125329606742973</v>
+        <v>0.03099291024303052</v>
       </c>
       <c r="T8">
-        <v>0.1125329606742973</v>
+        <v>0.03099291024303052</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,10 +983,10 @@
         <v>84.89685299999999</v>
       </c>
       <c r="I9">
-        <v>0.3208783762262898</v>
+        <v>0.2151681023954678</v>
       </c>
       <c r="J9">
-        <v>0.3208783762262897</v>
+        <v>0.2151681023954678</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -995,28 +995,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.000161</v>
+        <v>9.499999999999999E-05</v>
       </c>
       <c r="N9">
-        <v>0.000483</v>
+        <v>0.000285</v>
       </c>
       <c r="O9">
-        <v>0.0001212241074843714</v>
+        <v>0.000103033225865461</v>
       </c>
       <c r="P9">
-        <v>0.0001212241074843714</v>
+        <v>0.000103033225865461</v>
       </c>
       <c r="Q9">
-        <v>0.004556131111</v>
+        <v>0.002688400345</v>
       </c>
       <c r="R9">
-        <v>0.041005179999</v>
+        <v>0.024195603105</v>
       </c>
       <c r="S9">
-        <v>3.889819476906632E-05</v>
+        <v>2.216946369315488E-05</v>
       </c>
       <c r="T9">
-        <v>3.889819476906631E-05</v>
+        <v>2.216946369315488E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>18.27223466666667</v>
+        <v>31.40962533333334</v>
       </c>
       <c r="H10">
-        <v>54.81670399999999</v>
+        <v>94.22887600000001</v>
       </c>
       <c r="I10">
-        <v>0.2071866547231988</v>
+        <v>0.2388197880524246</v>
       </c>
       <c r="J10">
-        <v>0.2071866547231988</v>
+        <v>0.2388197880524245</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.192031</v>
+        <v>0.118976</v>
       </c>
       <c r="N10">
-        <v>0.576093</v>
+        <v>0.356928</v>
       </c>
       <c r="O10">
-        <v>0.1445887365486417</v>
+        <v>0.1290366429533589</v>
       </c>
       <c r="P10">
-        <v>0.1445887365486417</v>
+        <v>0.1290366429533589</v>
       </c>
       <c r="Q10">
-        <v>3.508835495274666</v>
+        <v>3.736991583658668</v>
       </c>
       <c r="R10">
-        <v>31.579519457472</v>
+        <v>33.63292425292801</v>
       </c>
       <c r="S10">
-        <v>0.02995685663616699</v>
+        <v>0.03081650372111755</v>
       </c>
       <c r="T10">
-        <v>0.02995685663616699</v>
+        <v>0.03081650372111755</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>18.27223466666667</v>
+        <v>31.40962533333334</v>
       </c>
       <c r="H11">
-        <v>54.81670399999999</v>
+        <v>94.22887600000001</v>
       </c>
       <c r="I11">
-        <v>0.2071866547231988</v>
+        <v>0.2388197880524246</v>
       </c>
       <c r="J11">
-        <v>0.2071866547231988</v>
+        <v>0.2388197880524245</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1125,22 +1125,22 @@
         <v>2.010455</v>
       </c>
       <c r="O11">
-        <v>0.5045871905020535</v>
+        <v>0.7268198740608612</v>
       </c>
       <c r="P11">
-        <v>0.5045871905020536</v>
+        <v>0.7268198740608612</v>
       </c>
       <c r="Q11">
-        <v>12.24516851559111</v>
+        <v>21.04921276650889</v>
       </c>
       <c r="R11">
-        <v>110.20651664032</v>
+        <v>189.44291489858</v>
       </c>
       <c r="S11">
-        <v>0.1045437320162979</v>
+        <v>0.1735789682755048</v>
       </c>
       <c r="T11">
-        <v>0.1045437320162979</v>
+        <v>0.1735789682755048</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>18.27223466666667</v>
+        <v>31.40962533333334</v>
       </c>
       <c r="H12">
-        <v>54.81670399999999</v>
+        <v>94.22887600000001</v>
       </c>
       <c r="I12">
-        <v>0.2071866547231988</v>
+        <v>0.2388197880524246</v>
       </c>
       <c r="J12">
-        <v>0.2071866547231988</v>
+        <v>0.2388197880524245</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.465775</v>
+        <v>0.13281</v>
       </c>
       <c r="N12">
-        <v>1.397325</v>
+        <v>0.39843</v>
       </c>
       <c r="O12">
-        <v>0.3507028488418203</v>
+        <v>0.1440404497599145</v>
       </c>
       <c r="P12">
-        <v>0.3507028488418204</v>
+        <v>0.1440404497599145</v>
       </c>
       <c r="Q12">
-        <v>8.510750101866666</v>
+        <v>4.171512340520001</v>
       </c>
       <c r="R12">
-        <v>76.59675091679999</v>
+        <v>37.54361106468</v>
       </c>
       <c r="S12">
-        <v>0.07266095005343243</v>
+        <v>0.03439970968263869</v>
       </c>
       <c r="T12">
-        <v>0.07266095005343241</v>
+        <v>0.03439970968263869</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>18.27223466666667</v>
+        <v>31.40962533333334</v>
       </c>
       <c r="H13">
-        <v>54.81670399999999</v>
+        <v>94.22887600000001</v>
       </c>
       <c r="I13">
-        <v>0.2071866547231988</v>
+        <v>0.2388197880524246</v>
       </c>
       <c r="J13">
-        <v>0.2071866547231988</v>
+        <v>0.2388197880524245</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1243,28 +1243,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.000161</v>
+        <v>9.499999999999999E-05</v>
       </c>
       <c r="N13">
-        <v>0.000483</v>
+        <v>0.000285</v>
       </c>
       <c r="O13">
-        <v>0.0001212241074843714</v>
+        <v>0.000103033225865461</v>
       </c>
       <c r="P13">
-        <v>0.0001212241074843714</v>
+        <v>0.000103033225865461</v>
       </c>
       <c r="Q13">
-        <v>0.002941829781333334</v>
+        <v>0.002983914406666667</v>
       </c>
       <c r="R13">
-        <v>0.026476468032</v>
+        <v>0.02685522966</v>
       </c>
       <c r="S13">
-        <v>2.51160173014924E-05</v>
+        <v>2.460637316354699E-05</v>
       </c>
       <c r="T13">
-        <v>2.511601730149239E-05</v>
+        <v>2.460637316354699E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7.470493333333333</v>
+        <v>8.433252666666666</v>
       </c>
       <c r="H14">
-        <v>22.41148</v>
+        <v>25.299758</v>
       </c>
       <c r="I14">
-        <v>0.08470701865978436</v>
+        <v>0.06412135111680237</v>
       </c>
       <c r="J14">
-        <v>0.08470701865978433</v>
+        <v>0.06412135111680237</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.192031</v>
+        <v>0.118976</v>
       </c>
       <c r="N14">
-        <v>0.576093</v>
+        <v>0.356928</v>
       </c>
       <c r="O14">
-        <v>0.1445887365486417</v>
+        <v>0.1290366429533589</v>
       </c>
       <c r="P14">
-        <v>0.1445887365486417</v>
+        <v>0.1290366429533589</v>
       </c>
       <c r="Q14">
-        <v>1.434566305293333</v>
+        <v>1.003354669269333</v>
       </c>
       <c r="R14">
-        <v>12.91109674764</v>
+        <v>9.030192023424</v>
       </c>
       <c r="S14">
-        <v>0.01224768080482044</v>
+        <v>0.008274003889745786</v>
       </c>
       <c r="T14">
-        <v>0.01224768080482044</v>
+        <v>0.008274003889745786</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7.470493333333333</v>
+        <v>8.433252666666666</v>
       </c>
       <c r="H15">
-        <v>22.41148</v>
+        <v>25.299758</v>
       </c>
       <c r="I15">
-        <v>0.08470701865978436</v>
+        <v>0.06412135111680237</v>
       </c>
       <c r="J15">
-        <v>0.08470701865978433</v>
+        <v>0.06412135111680237</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>2.010455</v>
       </c>
       <c r="O15">
-        <v>0.5045871905020535</v>
+        <v>0.7268198740608612</v>
       </c>
       <c r="P15">
-        <v>0.5045871905020536</v>
+        <v>0.7268198740608612</v>
       </c>
       <c r="Q15">
-        <v>5.006363558155555</v>
+        <v>5.651558329987777</v>
       </c>
       <c r="R15">
-        <v>45.05727202339999</v>
+        <v>50.86402496989</v>
       </c>
       <c r="S15">
-        <v>0.04274207656134561</v>
+        <v>0.04660467234332656</v>
       </c>
       <c r="T15">
-        <v>0.04274207656134561</v>
+        <v>0.04660467234332656</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7.470493333333333</v>
+        <v>8.433252666666666</v>
       </c>
       <c r="H16">
-        <v>22.41148</v>
+        <v>25.299758</v>
       </c>
       <c r="I16">
-        <v>0.08470701865978436</v>
+        <v>0.06412135111680237</v>
       </c>
       <c r="J16">
-        <v>0.08470701865978433</v>
+        <v>0.06412135111680237</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.465775</v>
+        <v>0.13281</v>
       </c>
       <c r="N16">
-        <v>1.397325</v>
+        <v>0.39843</v>
       </c>
       <c r="O16">
-        <v>0.3507028488418203</v>
+        <v>0.1440404497599145</v>
       </c>
       <c r="P16">
-        <v>0.3507028488418204</v>
+        <v>0.1440404497599145</v>
       </c>
       <c r="Q16">
-        <v>3.479569032333333</v>
+        <v>1.12002028666</v>
       </c>
       <c r="R16">
-        <v>31.31612129099999</v>
+        <v>10.08018257994</v>
       </c>
       <c r="S16">
-        <v>0.02970699276088361</v>
+        <v>0.00923606825407761</v>
       </c>
       <c r="T16">
-        <v>0.0297069927608836</v>
+        <v>0.00923606825407761</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,7 +1464,7 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>7.470493333333333</v>
+        <v>8.433252666666666</v>
       </c>
       <c r="H17">
-        <v>22.41148</v>
+        <v>25.299758</v>
       </c>
       <c r="I17">
-        <v>0.08470701865978436</v>
+        <v>0.06412135111680237</v>
       </c>
       <c r="J17">
-        <v>0.08470701865978433</v>
+        <v>0.06412135111680237</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1491,28 +1491,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.000161</v>
+        <v>9.499999999999999E-05</v>
       </c>
       <c r="N17">
-        <v>0.000483</v>
+        <v>0.000285</v>
       </c>
       <c r="O17">
-        <v>0.0001212241074843714</v>
+        <v>0.000103033225865461</v>
       </c>
       <c r="P17">
-        <v>0.0001212241074843714</v>
+        <v>0.000103033225865461</v>
       </c>
       <c r="Q17">
-        <v>0.001202749426666667</v>
+        <v>0.0008011590033333332</v>
       </c>
       <c r="R17">
-        <v>0.01082474484</v>
+        <v>0.00721043103</v>
       </c>
       <c r="S17">
-        <v>1.026853273469435E-05</v>
+        <v>6.60662965241603E-06</v>
       </c>
       <c r="T17">
-        <v>1.026853273469435E-05</v>
+        <v>6.60662965241603E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>13.69801333333333</v>
+        <v>15.61063466666667</v>
       </c>
       <c r="H18">
-        <v>41.09404</v>
+        <v>46.831904</v>
       </c>
       <c r="I18">
-        <v>0.1553201133118351</v>
+        <v>0.1186938214923788</v>
       </c>
       <c r="J18">
-        <v>0.155320113311835</v>
+        <v>0.1186938214923787</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.192031</v>
+        <v>0.118976</v>
       </c>
       <c r="N18">
-        <v>0.576093</v>
+        <v>0.356928</v>
       </c>
       <c r="O18">
-        <v>0.1445887365486417</v>
+        <v>0.1290366429533589</v>
       </c>
       <c r="P18">
-        <v>0.1445887365486417</v>
+        <v>0.1290366429533589</v>
       </c>
       <c r="Q18">
-        <v>2.630443198413333</v>
+        <v>1.857290870101334</v>
       </c>
       <c r="R18">
-        <v>23.67398878572</v>
+        <v>16.715617830912</v>
       </c>
       <c r="S18">
-        <v>0.0224575389443501</v>
+        <v>0.01531585226468179</v>
       </c>
       <c r="T18">
-        <v>0.02245753894435009</v>
+        <v>0.01531585226468179</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>13.69801333333333</v>
+        <v>15.61063466666667</v>
       </c>
       <c r="H19">
-        <v>41.09404</v>
+        <v>46.831904</v>
       </c>
       <c r="I19">
-        <v>0.1553201133118351</v>
+        <v>0.1186938214923788</v>
       </c>
       <c r="J19">
-        <v>0.155320113311835</v>
+        <v>0.1186938214923787</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1621,22 +1621,22 @@
         <v>2.010455</v>
       </c>
       <c r="O19">
-        <v>0.5045871905020535</v>
+        <v>0.7268198740608612</v>
       </c>
       <c r="P19">
-        <v>0.5045871905020536</v>
+        <v>0.7268198740608612</v>
       </c>
       <c r="Q19">
-        <v>9.179746465355555</v>
+        <v>10.46149283959111</v>
       </c>
       <c r="R19">
-        <v>82.6177181882</v>
+        <v>94.15343555631999</v>
       </c>
       <c r="S19">
-        <v>0.07837253960447946</v>
+        <v>0.08626902838889308</v>
       </c>
       <c r="T19">
-        <v>0.07837253960447944</v>
+        <v>0.08626902838889305</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>13.69801333333333</v>
+        <v>15.61063466666667</v>
       </c>
       <c r="H20">
-        <v>41.09404</v>
+        <v>46.831904</v>
       </c>
       <c r="I20">
-        <v>0.1553201133118351</v>
+        <v>0.1186938214923788</v>
       </c>
       <c r="J20">
-        <v>0.155320113311835</v>
+        <v>0.1186938214923787</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.465775</v>
+        <v>0.13281</v>
       </c>
       <c r="N20">
-        <v>1.397325</v>
+        <v>0.39843</v>
       </c>
       <c r="O20">
-        <v>0.3507028488418203</v>
+        <v>0.1440404497599145</v>
       </c>
       <c r="P20">
-        <v>0.3507028488418204</v>
+        <v>0.1440404497599145</v>
       </c>
       <c r="Q20">
-        <v>6.380192160333333</v>
+        <v>2.07324839008</v>
       </c>
       <c r="R20">
-        <v>57.421729443</v>
+        <v>18.65923551072</v>
       </c>
       <c r="S20">
-        <v>0.0544712062208949</v>
+        <v>0.01709671143148524</v>
       </c>
       <c r="T20">
-        <v>0.05447120622089489</v>
+        <v>0.01709671143148524</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>13.69801333333333</v>
+        <v>15.61063466666667</v>
       </c>
       <c r="H21">
-        <v>41.09404</v>
+        <v>46.831904</v>
       </c>
       <c r="I21">
-        <v>0.1553201133118351</v>
+        <v>0.1186938214923788</v>
       </c>
       <c r="J21">
-        <v>0.155320113311835</v>
+        <v>0.1186938214923787</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1739,28 +1739,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.000161</v>
+        <v>9.499999999999999E-05</v>
       </c>
       <c r="N21">
-        <v>0.000483</v>
+        <v>0.000285</v>
       </c>
       <c r="O21">
-        <v>0.0001212241074843714</v>
+        <v>0.000103033225865461</v>
       </c>
       <c r="P21">
-        <v>0.0001212241074843714</v>
+        <v>0.000103033225865461</v>
       </c>
       <c r="Q21">
-        <v>0.002205380146666667</v>
+        <v>0.001483010293333333</v>
       </c>
       <c r="R21">
-        <v>0.01984842132</v>
+        <v>0.01334709264</v>
       </c>
       <c r="S21">
-        <v>1.882854211059864E-05</v>
+        <v>1.222940731865897E-05</v>
       </c>
       <c r="T21">
-        <v>1.882854211059863E-05</v>
+        <v>1.222940731865897E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>14.43477333333333</v>
+        <v>32.69321433333334</v>
       </c>
       <c r="H22">
-        <v>43.30432</v>
+        <v>98.079643</v>
       </c>
       <c r="I22">
-        <v>0.1636741456739704</v>
+        <v>0.2485794222305853</v>
       </c>
       <c r="J22">
-        <v>0.1636741456739703</v>
+        <v>0.2485794222305853</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.192031</v>
+        <v>0.118976</v>
       </c>
       <c r="N22">
-        <v>0.576093</v>
+        <v>0.356928</v>
       </c>
       <c r="O22">
-        <v>0.1445887365486417</v>
+        <v>0.1290366429533589</v>
       </c>
       <c r="P22">
-        <v>0.1445887365486417</v>
+        <v>0.1290366429533589</v>
       </c>
       <c r="Q22">
-        <v>2.771923957973333</v>
+        <v>3.889707868522668</v>
       </c>
       <c r="R22">
-        <v>24.94731562176</v>
+        <v>35.007370816704</v>
       </c>
       <c r="S22">
-        <v>0.02366543792867771</v>
+        <v>0.03207585415192028</v>
       </c>
       <c r="T22">
-        <v>0.02366543792867771</v>
+        <v>0.03207585415192027</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>14.43477333333333</v>
+        <v>32.69321433333334</v>
       </c>
       <c r="H23">
-        <v>43.30432</v>
+        <v>98.079643</v>
       </c>
       <c r="I23">
-        <v>0.1636741456739704</v>
+        <v>0.2485794222305853</v>
       </c>
       <c r="J23">
-        <v>0.1636741456739703</v>
+        <v>0.2485794222305853</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1869,22 +1869,22 @@
         <v>2.010455</v>
       </c>
       <c r="O23">
-        <v>0.5045871905020535</v>
+        <v>0.7268198740608612</v>
       </c>
       <c r="P23">
-        <v>0.5045871905020536</v>
+        <v>0.7268198740608612</v>
       </c>
       <c r="Q23">
-        <v>9.673487407288889</v>
+        <v>21.90941207417389</v>
       </c>
       <c r="R23">
-        <v>87.0613866656</v>
+        <v>197.184708667565</v>
       </c>
       <c r="S23">
-        <v>0.08258787732345255</v>
+        <v>0.1806724643597557</v>
       </c>
       <c r="T23">
-        <v>0.08258787732345255</v>
+        <v>0.1806724643597556</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>14.43477333333333</v>
+        <v>32.69321433333334</v>
       </c>
       <c r="H24">
-        <v>43.30432</v>
+        <v>98.079643</v>
       </c>
       <c r="I24">
-        <v>0.1636741456739704</v>
+        <v>0.2485794222305853</v>
       </c>
       <c r="J24">
-        <v>0.1636741456739703</v>
+        <v>0.2485794222305853</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.465775</v>
+        <v>0.13281</v>
       </c>
       <c r="N24">
-        <v>1.397325</v>
+        <v>0.39843</v>
       </c>
       <c r="O24">
-        <v>0.3507028488418203</v>
+        <v>0.1440404497599145</v>
       </c>
       <c r="P24">
-        <v>0.3507028488418204</v>
+        <v>0.1440404497599145</v>
       </c>
       <c r="Q24">
-        <v>6.723356549333333</v>
+        <v>4.34198579561</v>
       </c>
       <c r="R24">
-        <v>60.51020894400001</v>
+        <v>39.07787216049</v>
       </c>
       <c r="S24">
-        <v>0.05740098916961252</v>
+        <v>0.0358054917791532</v>
       </c>
       <c r="T24">
-        <v>0.05740098916961252</v>
+        <v>0.0358054917791532</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,7 +1960,7 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>14.43477333333333</v>
+        <v>32.69321433333334</v>
       </c>
       <c r="H25">
-        <v>43.30432</v>
+        <v>98.079643</v>
       </c>
       <c r="I25">
-        <v>0.1636741456739704</v>
+        <v>0.2485794222305853</v>
       </c>
       <c r="J25">
-        <v>0.1636741456739703</v>
+        <v>0.2485794222305853</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -1987,28 +1987,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M25">
-        <v>0.000161</v>
+        <v>9.499999999999999E-05</v>
       </c>
       <c r="N25">
-        <v>0.000483</v>
+        <v>0.000285</v>
       </c>
       <c r="O25">
-        <v>0.0001212241074843714</v>
+        <v>0.000103033225865461</v>
       </c>
       <c r="P25">
-        <v>0.0001212241074843714</v>
+        <v>0.000103033225865461</v>
       </c>
       <c r="Q25">
-        <v>0.002323998506666667</v>
+        <v>0.003105855361666667</v>
       </c>
       <c r="R25">
-        <v>0.02091598656</v>
+        <v>0.027952698255</v>
       </c>
       <c r="S25">
-        <v>1.984125222759404E-05</v>
+        <v>2.56119397561897E-05</v>
       </c>
       <c r="T25">
-        <v>1.984125222759404E-05</v>
+        <v>2.56119397561897E-05</v>
       </c>
     </row>
   </sheetData>
